--- a/data/output/FV2404_FV2310/UTILMD/55147.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55147.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10834" uniqueCount="679">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10855" uniqueCount="679">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2258,6 +2258,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U549" totalsRowShown="0">
+  <autoFilter ref="A1:U549"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2547,7 +2577,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U549"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26977,5 +27010,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55147.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55147.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13074" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12962" uniqueCount="1219">
   <si>
     <t>#</t>
   </si>
@@ -18317,44 +18317,42 @@
       <c r="V289" s="11"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2" t="s">
+      <c r="C290" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M290" s="2" t="s">
+      <c r="K290" s="5"/>
+      <c r="L290" s="7"/>
+      <c r="M290" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N290" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O290" s="2"/>
-      <c r="P290" s="2"/>
-      <c r="Q290" s="2"/>
-      <c r="R290" s="2"/>
-      <c r="S290" s="2"/>
-      <c r="T290" s="2"/>
-      <c r="U290" s="2" t="s">
+      <c r="N290" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O290" s="5"/>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V290" s="2"/>
+      <c r="V290" s="5"/>
     </row>
     <row r="291" spans="1:22">
       <c r="A291" s="2" t="s">
@@ -18488,9 +18486,7 @@
         <v>422</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L293" s="7"/>
       <c r="M293" s="2" t="s">
         <v>52</v>
       </c>
@@ -21089,46 +21085,44 @@
       <c r="V359" s="2"/>
     </row>
     <row r="360" spans="1:22">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-      <c r="J360" s="2" t="s">
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="K360" s="2" t="s">
+      <c r="K360" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="L360" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M360" s="2" t="s">
+      <c r="L360" s="7"/>
+      <c r="M360" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N360" s="2" t="s">
+      <c r="N360" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O360" s="2"/>
-      <c r="P360" s="2"/>
-      <c r="Q360" s="2"/>
-      <c r="R360" s="2"/>
-      <c r="S360" s="2"/>
-      <c r="T360" s="2"/>
-      <c r="U360" s="2" t="s">
+      <c r="O360" s="5"/>
+      <c r="P360" s="5"/>
+      <c r="Q360" s="5"/>
+      <c r="R360" s="5"/>
+      <c r="S360" s="5"/>
+      <c r="T360" s="5"/>
+      <c r="U360" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="V360" s="2" t="s">
+      <c r="V360" s="5" t="s">
         <v>516</v>
       </c>
     </row>
@@ -21399,44 +21393,42 @@
       </c>
     </row>
     <row r="366" spans="1:22">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2"/>
-      <c r="I366" s="2"/>
-      <c r="J366" s="2" t="s">
+      <c r="C366" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M366" s="2" t="s">
+      <c r="K366" s="5"/>
+      <c r="L366" s="7"/>
+      <c r="M366" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N366" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
-      <c r="Q366" s="2"/>
-      <c r="R366" s="2"/>
-      <c r="S366" s="2"/>
-      <c r="T366" s="2"/>
-      <c r="U366" s="2" t="s">
+      <c r="N366" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O366" s="5"/>
+      <c r="P366" s="5"/>
+      <c r="Q366" s="5"/>
+      <c r="R366" s="5"/>
+      <c r="S366" s="5"/>
+      <c r="T366" s="5"/>
+      <c r="U366" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V366" s="2"/>
+      <c r="V366" s="5"/>
     </row>
     <row r="367" spans="1:22">
       <c r="A367" s="2" t="s">
@@ -21674,9 +21666,7 @@
         <v>419</v>
       </c>
       <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L371" s="7"/>
       <c r="M371" s="2" t="s">
         <v>75</v>
       </c>
@@ -21730,9 +21720,7 @@
         <v>419</v>
       </c>
       <c r="K372" s="2"/>
-      <c r="L372" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L372" s="7"/>
       <c r="M372" s="2" t="s">
         <v>75</v>
       </c>
@@ -21786,9 +21774,7 @@
         <v>419</v>
       </c>
       <c r="K373" s="2"/>
-      <c r="L373" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L373" s="7"/>
       <c r="M373" s="2" t="s">
         <v>75</v>
       </c>
@@ -21815,46 +21801,44 @@
       <c r="V373" s="2"/>
     </row>
     <row r="374" spans="1:22">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C374" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
-      <c r="H374" s="2"/>
-      <c r="I374" s="2"/>
-      <c r="J374" s="2" t="s">
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
+      <c r="J374" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K374" s="2" t="s">
+      <c r="K374" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="L374" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M374" s="2" t="s">
+      <c r="L374" s="7"/>
+      <c r="M374" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N374" s="2" t="s">
+      <c r="N374" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
-      <c r="Q374" s="2"/>
-      <c r="R374" s="2"/>
-      <c r="S374" s="2"/>
-      <c r="T374" s="2"/>
-      <c r="U374" s="2" t="s">
+      <c r="O374" s="5"/>
+      <c r="P374" s="5"/>
+      <c r="Q374" s="5"/>
+      <c r="R374" s="5"/>
+      <c r="S374" s="5"/>
+      <c r="T374" s="5"/>
+      <c r="U374" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="V374" s="2" t="s">
+      <c r="V374" s="5" t="s">
         <v>517</v>
       </c>
     </row>
@@ -22287,44 +22271,42 @@
       <c r="V382" s="2"/>
     </row>
     <row r="383" spans="1:22">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-      <c r="H383" s="2"/>
-      <c r="I383" s="2"/>
-      <c r="J383" s="2" t="s">
+      <c r="C383" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K383" s="2"/>
-      <c r="L383" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M383" s="2" t="s">
+      <c r="K383" s="5"/>
+      <c r="L383" s="7"/>
+      <c r="M383" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N383" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
-      <c r="Q383" s="2"/>
-      <c r="R383" s="2"/>
-      <c r="S383" s="2"/>
-      <c r="T383" s="2"/>
-      <c r="U383" s="2" t="s">
+      <c r="N383" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O383" s="5"/>
+      <c r="P383" s="5"/>
+      <c r="Q383" s="5"/>
+      <c r="R383" s="5"/>
+      <c r="S383" s="5"/>
+      <c r="T383" s="5"/>
+      <c r="U383" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V383" s="2"/>
+      <c r="V383" s="5"/>
     </row>
     <row r="384" spans="1:22">
       <c r="A384" s="2" t="s">
@@ -22562,9 +22544,7 @@
         <v>419</v>
       </c>
       <c r="K388" s="2"/>
-      <c r="L388" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L388" s="7"/>
       <c r="M388" s="2" t="s">
         <v>79</v>
       </c>
@@ -22618,9 +22598,7 @@
         <v>419</v>
       </c>
       <c r="K389" s="2"/>
-      <c r="L389" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L389" s="7"/>
       <c r="M389" s="2" t="s">
         <v>79</v>
       </c>
@@ -22674,9 +22652,7 @@
         <v>419</v>
       </c>
       <c r="K390" s="2"/>
-      <c r="L390" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L390" s="7"/>
       <c r="M390" s="2" t="s">
         <v>79</v>
       </c>
@@ -22730,9 +22706,7 @@
         <v>419</v>
       </c>
       <c r="K391" s="2"/>
-      <c r="L391" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L391" s="7"/>
       <c r="M391" s="2" t="s">
         <v>79</v>
       </c>
@@ -22786,9 +22760,7 @@
         <v>419</v>
       </c>
       <c r="K392" s="2"/>
-      <c r="L392" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L392" s="7"/>
       <c r="M392" s="2" t="s">
         <v>79</v>
       </c>
@@ -22842,9 +22814,7 @@
         <v>419</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>79</v>
       </c>
@@ -22956,9 +22926,7 @@
         <v>467</v>
       </c>
       <c r="K395" s="2"/>
-      <c r="L395" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L395" s="7"/>
       <c r="M395" s="2" t="s">
         <v>79</v>
       </c>
@@ -23012,9 +22980,7 @@
         <v>467</v>
       </c>
       <c r="K396" s="2"/>
-      <c r="L396" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L396" s="7"/>
       <c r="M396" s="2" t="s">
         <v>79</v>
       </c>
@@ -23068,9 +23034,7 @@
         <v>468</v>
       </c>
       <c r="K397" s="2"/>
-      <c r="L397" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L397" s="7"/>
       <c r="M397" s="2" t="s">
         <v>79</v>
       </c>
@@ -23126,9 +23090,7 @@
       <c r="K398" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="L398" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L398" s="7"/>
       <c r="M398" s="2" t="s">
         <v>79</v>
       </c>
@@ -23450,9 +23412,7 @@
         <v>419</v>
       </c>
       <c r="K404" s="2"/>
-      <c r="L404" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L404" s="7"/>
       <c r="M404" s="2" t="s">
         <v>81</v>
       </c>
@@ -23506,9 +23466,7 @@
         <v>419</v>
       </c>
       <c r="K405" s="2"/>
-      <c r="L405" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L405" s="7"/>
       <c r="M405" s="2" t="s">
         <v>81</v>
       </c>
@@ -23666,9 +23624,7 @@
         <v>419</v>
       </c>
       <c r="K408" s="2"/>
-      <c r="L408" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L408" s="7"/>
       <c r="M408" s="2" t="s">
         <v>82</v>
       </c>
@@ -23884,9 +23840,7 @@
         <v>419</v>
       </c>
       <c r="K412" s="2"/>
-      <c r="L412" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L412" s="7"/>
       <c r="M412" s="2" t="s">
         <v>83</v>
       </c>
@@ -23913,46 +23867,44 @@
       <c r="V412" s="2"/>
     </row>
     <row r="413" spans="1:22">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-      <c r="J413" s="2" t="s">
+      <c r="C413" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="K413" s="2" t="s">
+      <c r="K413" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="L413" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M413" s="2" t="s">
+      <c r="L413" s="7"/>
+      <c r="M413" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N413" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O413" s="2"/>
-      <c r="P413" s="2"/>
-      <c r="Q413" s="2"/>
-      <c r="R413" s="2"/>
-      <c r="S413" s="2"/>
-      <c r="T413" s="2"/>
-      <c r="U413" s="2" t="s">
+      <c r="N413" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O413" s="5"/>
+      <c r="P413" s="5"/>
+      <c r="Q413" s="5"/>
+      <c r="R413" s="5"/>
+      <c r="S413" s="5"/>
+      <c r="T413" s="5"/>
+      <c r="U413" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="V413" s="2" t="s">
+      <c r="V413" s="5" t="s">
         <v>521</v>
       </c>
     </row>
@@ -24192,9 +24144,7 @@
         <v>419</v>
       </c>
       <c r="K418" s="2"/>
-      <c r="L418" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L418" s="7"/>
       <c r="M418" s="2" t="s">
         <v>84</v>
       </c>
@@ -24221,46 +24171,44 @@
       <c r="V418" s="2"/>
     </row>
     <row r="419" spans="1:22">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C419" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2" t="s">
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+      <c r="J419" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K419" s="2" t="s">
+      <c r="K419" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="L419" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M419" s="2" t="s">
+      <c r="L419" s="7"/>
+      <c r="M419" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N419" s="2" t="s">
+      <c r="N419" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O419" s="2"/>
-      <c r="P419" s="2"/>
-      <c r="Q419" s="2"/>
-      <c r="R419" s="2"/>
-      <c r="S419" s="2"/>
-      <c r="T419" s="2"/>
-      <c r="U419" s="2" t="s">
+      <c r="O419" s="5"/>
+      <c r="P419" s="5"/>
+      <c r="Q419" s="5"/>
+      <c r="R419" s="5"/>
+      <c r="S419" s="5"/>
+      <c r="T419" s="5"/>
+      <c r="U419" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="V419" s="2" t="s">
+      <c r="V419" s="5" t="s">
         <v>522</v>
       </c>
     </row>
@@ -24506,9 +24454,7 @@
       <c r="K424" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="L424" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L424" s="7"/>
       <c r="M424" s="2" t="s">
         <v>86</v>
       </c>
@@ -25301,46 +25247,44 @@
       <c r="V438" s="2"/>
     </row>
     <row r="439" spans="1:22">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C439" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
-      <c r="H439" s="2"/>
-      <c r="I439" s="2"/>
-      <c r="J439" s="2" t="s">
+      <c r="C439" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D439" s="5"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="5"/>
+      <c r="J439" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="K439" s="2" t="s">
+      <c r="K439" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="L439" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M439" s="2" t="s">
+      <c r="L439" s="7"/>
+      <c r="M439" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N439" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O439" s="2"/>
-      <c r="P439" s="2"/>
-      <c r="Q439" s="2"/>
-      <c r="R439" s="2"/>
-      <c r="S439" s="2"/>
-      <c r="T439" s="2"/>
-      <c r="U439" s="2" t="s">
+      <c r="N439" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O439" s="5"/>
+      <c r="P439" s="5"/>
+      <c r="Q439" s="5"/>
+      <c r="R439" s="5"/>
+      <c r="S439" s="5"/>
+      <c r="T439" s="5"/>
+      <c r="U439" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="V439" s="2" t="s">
+      <c r="V439" s="5" t="s">
         <v>528</v>
       </c>
     </row>
@@ -25580,9 +25524,7 @@
         <v>419</v>
       </c>
       <c r="K444" s="2"/>
-      <c r="L444" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L444" s="7"/>
       <c r="M444" s="2" t="s">
         <v>58</v>
       </c>
@@ -25636,9 +25578,7 @@
         <v>419</v>
       </c>
       <c r="K445" s="2"/>
-      <c r="L445" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L445" s="7"/>
       <c r="M445" s="2" t="s">
         <v>58</v>
       </c>
@@ -25692,9 +25632,7 @@
         <v>419</v>
       </c>
       <c r="K446" s="2"/>
-      <c r="L446" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L446" s="7"/>
       <c r="M446" s="2" t="s">
         <v>58</v>
       </c>
@@ -25721,46 +25659,44 @@
       <c r="V446" s="2"/>
     </row>
     <row r="447" spans="1:22">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
-      <c r="I447" s="2"/>
-      <c r="J447" s="2" t="s">
+      <c r="C447" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K447" s="2" t="s">
+      <c r="K447" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="L447" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M447" s="2" t="s">
+      <c r="L447" s="7"/>
+      <c r="M447" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N447" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O447" s="2"/>
-      <c r="P447" s="2"/>
-      <c r="Q447" s="2"/>
-      <c r="R447" s="2"/>
-      <c r="S447" s="2"/>
-      <c r="T447" s="2"/>
-      <c r="U447" s="2" t="s">
+      <c r="N447" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O447" s="5"/>
+      <c r="P447" s="5"/>
+      <c r="Q447" s="5"/>
+      <c r="R447" s="5"/>
+      <c r="S447" s="5"/>
+      <c r="T447" s="5"/>
+      <c r="U447" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V447" s="2" t="s">
+      <c r="V447" s="5" t="s">
         <v>529</v>
       </c>
     </row>
@@ -25923,46 +25859,44 @@
       <c r="V450" s="2"/>
     </row>
     <row r="451" spans="1:22">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
-      <c r="I451" s="2"/>
-      <c r="J451" s="2" t="s">
+      <c r="C451" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="K451" s="2" t="s">
+      <c r="K451" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="L451" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M451" s="2" t="s">
+      <c r="L451" s="7"/>
+      <c r="M451" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N451" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O451" s="2"/>
-      <c r="P451" s="2"/>
-      <c r="Q451" s="2"/>
-      <c r="R451" s="2"/>
-      <c r="S451" s="2"/>
-      <c r="T451" s="2"/>
-      <c r="U451" s="2" t="s">
+      <c r="N451" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O451" s="5"/>
+      <c r="P451" s="5"/>
+      <c r="Q451" s="5"/>
+      <c r="R451" s="5"/>
+      <c r="S451" s="5"/>
+      <c r="T451" s="5"/>
+      <c r="U451" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="V451" s="2" t="s">
+      <c r="V451" s="5" t="s">
         <v>509</v>
       </c>
     </row>
@@ -26125,46 +26059,44 @@
       <c r="V454" s="2"/>
     </row>
     <row r="455" spans="1:22">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-      <c r="J455" s="2" t="s">
+      <c r="C455" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K455" s="2" t="s">
+      <c r="K455" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="L455" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M455" s="2" t="s">
+      <c r="L455" s="7"/>
+      <c r="M455" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N455" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O455" s="2"/>
-      <c r="P455" s="2"/>
-      <c r="Q455" s="2"/>
-      <c r="R455" s="2"/>
-      <c r="S455" s="2"/>
-      <c r="T455" s="2"/>
-      <c r="U455" s="2" t="s">
+      <c r="N455" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O455" s="5"/>
+      <c r="P455" s="5"/>
+      <c r="Q455" s="5"/>
+      <c r="R455" s="5"/>
+      <c r="S455" s="5"/>
+      <c r="T455" s="5"/>
+      <c r="U455" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="V455" s="2" t="s">
+      <c r="V455" s="5" t="s">
         <v>530</v>
       </c>
     </row>
@@ -26485,46 +26417,44 @@
       <c r="V461" s="2"/>
     </row>
     <row r="462" spans="1:22">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D462" s="2"/>
-      <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
-      <c r="H462" s="2"/>
-      <c r="I462" s="2"/>
-      <c r="J462" s="2" t="s">
+      <c r="C462" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
+      <c r="I462" s="5"/>
+      <c r="J462" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K462" s="2" t="s">
+      <c r="K462" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L462" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M462" s="2" t="s">
+      <c r="L462" s="7"/>
+      <c r="M462" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N462" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O462" s="2"/>
-      <c r="P462" s="2"/>
-      <c r="Q462" s="2"/>
-      <c r="R462" s="2"/>
-      <c r="S462" s="2"/>
-      <c r="T462" s="2"/>
-      <c r="U462" s="2" t="s">
+      <c r="N462" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O462" s="5"/>
+      <c r="P462" s="5"/>
+      <c r="Q462" s="5"/>
+      <c r="R462" s="5"/>
+      <c r="S462" s="5"/>
+      <c r="T462" s="5"/>
+      <c r="U462" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="V462" s="2" t="s">
+      <c r="V462" s="5" t="s">
         <v>531</v>
       </c>
     </row>
@@ -26687,46 +26617,44 @@
       <c r="V465" s="2"/>
     </row>
     <row r="466" spans="1:22">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-      <c r="H466" s="2"/>
-      <c r="I466" s="2"/>
-      <c r="J466" s="2" t="s">
+      <c r="C466" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
+      <c r="I466" s="5"/>
+      <c r="J466" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K466" s="2" t="s">
+      <c r="K466" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="L466" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M466" s="2" t="s">
+      <c r="L466" s="7"/>
+      <c r="M466" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N466" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O466" s="2"/>
-      <c r="P466" s="2"/>
-      <c r="Q466" s="2"/>
-      <c r="R466" s="2"/>
-      <c r="S466" s="2"/>
-      <c r="T466" s="2"/>
-      <c r="U466" s="2" t="s">
+      <c r="N466" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O466" s="5"/>
+      <c r="P466" s="5"/>
+      <c r="Q466" s="5"/>
+      <c r="R466" s="5"/>
+      <c r="S466" s="5"/>
+      <c r="T466" s="5"/>
+      <c r="U466" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="V466" s="2" t="s">
+      <c r="V466" s="5" t="s">
         <v>532</v>
       </c>
     </row>
@@ -26920,9 +26848,7 @@
         <v>419</v>
       </c>
       <c r="K470" s="2"/>
-      <c r="L470" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L470" s="7"/>
       <c r="M470" s="2" t="s">
         <v>93</v>
       </c>
@@ -26949,46 +26875,44 @@
       <c r="V470" s="2"/>
     </row>
     <row r="471" spans="1:22">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="C471" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2"/>
-      <c r="J471" s="2" t="s">
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
+      <c r="I471" s="5"/>
+      <c r="J471" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K471" s="2" t="s">
+      <c r="K471" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="L471" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M471" s="2" t="s">
+      <c r="L471" s="7"/>
+      <c r="M471" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N471" s="2" t="s">
+      <c r="N471" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O471" s="2"/>
-      <c r="P471" s="2"/>
-      <c r="Q471" s="2"/>
-      <c r="R471" s="2"/>
-      <c r="S471" s="2"/>
-      <c r="T471" s="2"/>
-      <c r="U471" s="2" t="s">
+      <c r="O471" s="5"/>
+      <c r="P471" s="5"/>
+      <c r="Q471" s="5"/>
+      <c r="R471" s="5"/>
+      <c r="S471" s="5"/>
+      <c r="T471" s="5"/>
+      <c r="U471" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="V471" s="2" t="s">
+      <c r="V471" s="5" t="s">
         <v>533</v>
       </c>
     </row>
@@ -27255,44 +27179,42 @@
       <c r="V476" s="2"/>
     </row>
     <row r="477" spans="1:22">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C477" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D477" s="2"/>
-      <c r="E477" s="2"/>
-      <c r="F477" s="2"/>
-      <c r="G477" s="2"/>
-      <c r="H477" s="2"/>
-      <c r="I477" s="2"/>
-      <c r="J477" s="2" t="s">
+      <c r="C477" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D477" s="5"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+      <c r="G477" s="5"/>
+      <c r="H477" s="5"/>
+      <c r="I477" s="5"/>
+      <c r="J477" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K477" s="2"/>
-      <c r="L477" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M477" s="2" t="s">
+      <c r="K477" s="5"/>
+      <c r="L477" s="7"/>
+      <c r="M477" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N477" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O477" s="2"/>
-      <c r="P477" s="2"/>
-      <c r="Q477" s="2"/>
-      <c r="R477" s="2"/>
-      <c r="S477" s="2"/>
-      <c r="T477" s="2"/>
-      <c r="U477" s="2" t="s">
+      <c r="N477" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O477" s="5"/>
+      <c r="P477" s="5"/>
+      <c r="Q477" s="5"/>
+      <c r="R477" s="5"/>
+      <c r="S477" s="5"/>
+      <c r="T477" s="5"/>
+      <c r="U477" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V477" s="2"/>
+      <c r="V477" s="5"/>
     </row>
     <row r="478" spans="1:22">
       <c r="A478" s="2" t="s">
@@ -27692,9 +27614,7 @@
         <v>419</v>
       </c>
       <c r="K485" s="2"/>
-      <c r="L485" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L485" s="7"/>
       <c r="M485" s="2" t="s">
         <v>96</v>
       </c>
@@ -27748,9 +27668,7 @@
         <v>419</v>
       </c>
       <c r="K486" s="2"/>
-      <c r="L486" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L486" s="7"/>
       <c r="M486" s="2" t="s">
         <v>96</v>
       </c>
@@ -27804,9 +27722,7 @@
         <v>419</v>
       </c>
       <c r="K487" s="2"/>
-      <c r="L487" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L487" s="7"/>
       <c r="M487" s="2" t="s">
         <v>96</v>
       </c>
@@ -27891,46 +27807,44 @@
       </c>
     </row>
     <row r="489" spans="1:22">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C489" s="2" t="s">
+      <c r="C489" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
-      <c r="H489" s="2"/>
-      <c r="I489" s="2"/>
-      <c r="J489" s="2" t="s">
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
+      <c r="I489" s="5"/>
+      <c r="J489" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K489" s="2" t="s">
+      <c r="K489" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="L489" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M489" s="2" t="s">
+      <c r="L489" s="7"/>
+      <c r="M489" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N489" s="2" t="s">
+      <c r="N489" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O489" s="2"/>
-      <c r="P489" s="2"/>
-      <c r="Q489" s="2"/>
-      <c r="R489" s="2"/>
-      <c r="S489" s="2"/>
-      <c r="T489" s="2"/>
-      <c r="U489" s="2" t="s">
+      <c r="O489" s="5"/>
+      <c r="P489" s="5"/>
+      <c r="Q489" s="5"/>
+      <c r="R489" s="5"/>
+      <c r="S489" s="5"/>
+      <c r="T489" s="5"/>
+      <c r="U489" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="V489" s="2" t="s">
+      <c r="V489" s="5" t="s">
         <v>536</v>
       </c>
     </row>
@@ -28197,44 +28111,42 @@
       <c r="V494" s="2"/>
     </row>
     <row r="495" spans="1:22">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C495" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
-      <c r="H495" s="2"/>
-      <c r="I495" s="2"/>
-      <c r="J495" s="2" t="s">
+      <c r="C495" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+      <c r="G495" s="5"/>
+      <c r="H495" s="5"/>
+      <c r="I495" s="5"/>
+      <c r="J495" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K495" s="2"/>
-      <c r="L495" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M495" s="2" t="s">
+      <c r="K495" s="5"/>
+      <c r="L495" s="7"/>
+      <c r="M495" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N495" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O495" s="2"/>
-      <c r="P495" s="2"/>
-      <c r="Q495" s="2"/>
-      <c r="R495" s="2"/>
-      <c r="S495" s="2"/>
-      <c r="T495" s="2"/>
-      <c r="U495" s="2" t="s">
+      <c r="N495" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O495" s="5"/>
+      <c r="P495" s="5"/>
+      <c r="Q495" s="5"/>
+      <c r="R495" s="5"/>
+      <c r="S495" s="5"/>
+      <c r="T495" s="5"/>
+      <c r="U495" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V495" s="2"/>
+      <c r="V495" s="5"/>
     </row>
     <row r="496" spans="1:22">
       <c r="A496" s="2" t="s">
@@ -28630,9 +28542,7 @@
         <v>419</v>
       </c>
       <c r="K503" s="2"/>
-      <c r="L503" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L503" s="7"/>
       <c r="M503" s="2" t="s">
         <v>99</v>
       </c>
@@ -28686,9 +28596,7 @@
         <v>419</v>
       </c>
       <c r="K504" s="2"/>
-      <c r="L504" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L504" s="7"/>
       <c r="M504" s="2" t="s">
         <v>99</v>
       </c>
@@ -28742,9 +28650,7 @@
         <v>419</v>
       </c>
       <c r="K505" s="2"/>
-      <c r="L505" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L505" s="7"/>
       <c r="M505" s="2" t="s">
         <v>99</v>
       </c>
@@ -28798,9 +28704,7 @@
         <v>419</v>
       </c>
       <c r="K506" s="2"/>
-      <c r="L506" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L506" s="7"/>
       <c r="M506" s="2" t="s">
         <v>99</v>
       </c>
@@ -28854,9 +28758,7 @@
         <v>419</v>
       </c>
       <c r="K507" s="2"/>
-      <c r="L507" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L507" s="7"/>
       <c r="M507" s="2" t="s">
         <v>99</v>
       </c>
@@ -28883,46 +28785,44 @@
       <c r="V507" s="2"/>
     </row>
     <row r="508" spans="1:22">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C508" s="2" t="s">
+      <c r="C508" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D508" s="2"/>
-      <c r="E508" s="2"/>
-      <c r="F508" s="2"/>
-      <c r="G508" s="2"/>
-      <c r="H508" s="2"/>
-      <c r="I508" s="2"/>
-      <c r="J508" s="2" t="s">
+      <c r="D508" s="5"/>
+      <c r="E508" s="5"/>
+      <c r="F508" s="5"/>
+      <c r="G508" s="5"/>
+      <c r="H508" s="5"/>
+      <c r="I508" s="5"/>
+      <c r="J508" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K508" s="2" t="s">
+      <c r="K508" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="L508" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M508" s="2" t="s">
+      <c r="L508" s="7"/>
+      <c r="M508" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N508" s="2" t="s">
+      <c r="N508" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O508" s="2"/>
-      <c r="P508" s="2"/>
-      <c r="Q508" s="2"/>
-      <c r="R508" s="2"/>
-      <c r="S508" s="2"/>
-      <c r="T508" s="2"/>
-      <c r="U508" s="2" t="s">
+      <c r="O508" s="5"/>
+      <c r="P508" s="5"/>
+      <c r="Q508" s="5"/>
+      <c r="R508" s="5"/>
+      <c r="S508" s="5"/>
+      <c r="T508" s="5"/>
+      <c r="U508" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="V508" s="2" t="s">
+      <c r="V508" s="5" t="s">
         <v>533</v>
       </c>
     </row>
@@ -29189,44 +29089,42 @@
       <c r="V513" s="2"/>
     </row>
     <row r="514" spans="1:22">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C514" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D514" s="2"/>
-      <c r="E514" s="2"/>
-      <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
-      <c r="H514" s="2"/>
-      <c r="I514" s="2"/>
-      <c r="J514" s="2" t="s">
+      <c r="C514" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5"/>
+      <c r="F514" s="5"/>
+      <c r="G514" s="5"/>
+      <c r="H514" s="5"/>
+      <c r="I514" s="5"/>
+      <c r="J514" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K514" s="2"/>
-      <c r="L514" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M514" s="2" t="s">
+      <c r="K514" s="5"/>
+      <c r="L514" s="7"/>
+      <c r="M514" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N514" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O514" s="2"/>
-      <c r="P514" s="2"/>
-      <c r="Q514" s="2"/>
-      <c r="R514" s="2"/>
-      <c r="S514" s="2"/>
-      <c r="T514" s="2"/>
-      <c r="U514" s="2" t="s">
+      <c r="N514" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O514" s="5"/>
+      <c r="P514" s="5"/>
+      <c r="Q514" s="5"/>
+      <c r="R514" s="5"/>
+      <c r="S514" s="5"/>
+      <c r="T514" s="5"/>
+      <c r="U514" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V514" s="2"/>
+      <c r="V514" s="5"/>
     </row>
     <row r="515" spans="1:22">
       <c r="A515" s="2" t="s">
@@ -29622,9 +29520,7 @@
         <v>419</v>
       </c>
       <c r="K522" s="2"/>
-      <c r="L522" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L522" s="7"/>
       <c r="M522" s="2" t="s">
         <v>102</v>
       </c>
@@ -29651,46 +29547,44 @@
       <c r="V522" s="2"/>
     </row>
     <row r="523" spans="1:22">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C523" s="2" t="s">
+      <c r="C523" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D523" s="2"/>
-      <c r="E523" s="2"/>
-      <c r="F523" s="2"/>
-      <c r="G523" s="2"/>
-      <c r="H523" s="2"/>
-      <c r="I523" s="2"/>
-      <c r="J523" s="2" t="s">
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+      <c r="G523" s="5"/>
+      <c r="H523" s="5"/>
+      <c r="I523" s="5"/>
+      <c r="J523" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K523" s="2" t="s">
+      <c r="K523" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="L523" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M523" s="2" t="s">
+      <c r="L523" s="7"/>
+      <c r="M523" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N523" s="2" t="s">
+      <c r="N523" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O523" s="2"/>
-      <c r="P523" s="2"/>
-      <c r="Q523" s="2"/>
-      <c r="R523" s="2"/>
-      <c r="S523" s="2"/>
-      <c r="T523" s="2"/>
-      <c r="U523" s="2" t="s">
+      <c r="O523" s="5"/>
+      <c r="P523" s="5"/>
+      <c r="Q523" s="5"/>
+      <c r="R523" s="5"/>
+      <c r="S523" s="5"/>
+      <c r="T523" s="5"/>
+      <c r="U523" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="V523" s="2" t="s">
+      <c r="V523" s="5" t="s">
         <v>537</v>
       </c>
     </row>
@@ -29818,9 +29712,7 @@
         <v>418</v>
       </c>
       <c r="K526" s="2"/>
-      <c r="L526" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="L526" s="7"/>
       <c r="M526" s="2" t="s">
         <v>103</v>
       </c>
@@ -30105,46 +29997,44 @@
       </c>
     </row>
     <row r="532" spans="1:22">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="C532" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D532" s="2"/>
-      <c r="E532" s="2"/>
-      <c r="F532" s="2"/>
-      <c r="G532" s="2"/>
-      <c r="H532" s="2"/>
-      <c r="I532" s="2"/>
-      <c r="J532" s="2" t="s">
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+      <c r="F532" s="5"/>
+      <c r="G532" s="5"/>
+      <c r="H532" s="5"/>
+      <c r="I532" s="5"/>
+      <c r="J532" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K532" s="2" t="s">
+      <c r="K532" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L532" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M532" s="2" t="s">
+      <c r="L532" s="7"/>
+      <c r="M532" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N532" s="2" t="s">
+      <c r="N532" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O532" s="2"/>
-      <c r="P532" s="2"/>
-      <c r="Q532" s="2"/>
-      <c r="R532" s="2"/>
-      <c r="S532" s="2"/>
-      <c r="T532" s="2"/>
-      <c r="U532" s="2" t="s">
+      <c r="O532" s="5"/>
+      <c r="P532" s="5"/>
+      <c r="Q532" s="5"/>
+      <c r="R532" s="5"/>
+      <c r="S532" s="5"/>
+      <c r="T532" s="5"/>
+      <c r="U532" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="V532" s="2" t="s">
+      <c r="V532" s="5" t="s">
         <v>539</v>
       </c>
     </row>
@@ -30573,44 +30463,42 @@
       </c>
     </row>
     <row r="541" spans="1:22">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C541" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D541" s="2"/>
-      <c r="E541" s="2"/>
-      <c r="F541" s="2"/>
-      <c r="G541" s="2"/>
-      <c r="H541" s="2"/>
-      <c r="I541" s="2"/>
-      <c r="J541" s="2" t="s">
+      <c r="C541" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+      <c r="F541" s="5"/>
+      <c r="G541" s="5"/>
+      <c r="H541" s="5"/>
+      <c r="I541" s="5"/>
+      <c r="J541" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K541" s="2"/>
-      <c r="L541" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M541" s="2" t="s">
+      <c r="K541" s="5"/>
+      <c r="L541" s="7"/>
+      <c r="M541" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N541" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O541" s="2"/>
-      <c r="P541" s="2"/>
-      <c r="Q541" s="2"/>
-      <c r="R541" s="2"/>
-      <c r="S541" s="2"/>
-      <c r="T541" s="2"/>
-      <c r="U541" s="2" t="s">
+      <c r="N541" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O541" s="5"/>
+      <c r="P541" s="5"/>
+      <c r="Q541" s="5"/>
+      <c r="R541" s="5"/>
+      <c r="S541" s="5"/>
+      <c r="T541" s="5"/>
+      <c r="U541" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="V541" s="2"/>
+      <c r="V541" s="5"/>
     </row>
     <row r="542" spans="1:22">
       <c r="A542" s="2" t="s">
